--- a/Team-Data/2008-09/1-20-2008-09.xlsx
+++ b/Team-Data/2008-09/1-20-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,55 +733,55 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
         <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J2" t="n">
-        <v>79</v>
+        <v>78.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L2" t="n">
         <v>8.1</v>
       </c>
       <c r="M2" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="N2" t="n">
         <v>0.374</v>
       </c>
       <c r="O2" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P2" t="n">
         <v>24.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.742</v>
+        <v>0.74</v>
       </c>
       <c r="R2" t="n">
         <v>10.6</v>
       </c>
       <c r="S2" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="T2" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="U2" t="n">
         <v>21.5</v>
@@ -723,40 +790,40 @@
         <v>13</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC2" t="n">
         <v>1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF2" t="n">
         <v>8</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>9</v>
       </c>
       <c r="AG2" t="n">
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
         <v>23</v>
@@ -777,10 +844,10 @@
         <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
         <v>26</v>
@@ -789,10 +856,10 @@
         <v>21</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU2" t="n">
         <v>10</v>
@@ -807,7 +874,7 @@
         <v>18</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ2" t="n">
         <v>6</v>
@@ -816,7 +883,7 @@
         <v>21</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -848,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.786</v>
+        <v>0.791</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J3" t="n">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="K3" t="n">
         <v>0.48</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.377</v>
+        <v>0.374</v>
       </c>
       <c r="O3" t="n">
         <v>20.9</v>
       </c>
       <c r="P3" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.774</v>
+        <v>0.77</v>
       </c>
       <c r="R3" t="n">
         <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T3" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U3" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V3" t="n">
         <v>16.1</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X3" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
         <v>23.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,10 +1005,10 @@
         <v>4</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
@@ -956,7 +1023,7 @@
         <v>18</v>
       </c>
       <c r="AN3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AO3" t="n">
         <v>5</v>
@@ -971,10 +1038,10 @@
         <v>16</v>
       </c>
       <c r="AS3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU3" t="n">
         <v>5</v>
@@ -986,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-2.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>20</v>
       </c>
       <c r="AF4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
         <v>21</v>
@@ -1141,7 +1208,7 @@
         <v>20</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP4" t="n">
         <v>12</v>
@@ -1150,7 +1217,7 @@
         <v>24</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
@@ -1162,7 +1229,7 @@
         <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -1215,79 +1282,79 @@
         <v>42</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" t="n">
-        <v>0.405</v>
+        <v>0.429</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J5" t="n">
-        <v>84.40000000000001</v>
+        <v>84</v>
       </c>
       <c r="K5" t="n">
         <v>0.442</v>
       </c>
       <c r="L5" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M5" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.373</v>
+        <v>0.376</v>
       </c>
       <c r="O5" t="n">
-        <v>18.3</v>
+        <v>18.6</v>
       </c>
       <c r="P5" t="n">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="Q5" t="n">
         <v>0.798</v>
       </c>
       <c r="R5" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="S5" t="n">
         <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U5" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V5" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y5" t="n">
         <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AD5" t="n">
         <v>4</v>
@@ -1296,7 +1363,7 @@
         <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
@@ -1305,7 +1372,7 @@
         <v>8</v>
       </c>
       <c r="AI5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ5" t="n">
         <v>4</v>
@@ -1317,28 +1384,28 @@
         <v>19</v>
       </c>
       <c r="AM5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP5" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
       </c>
       <c r="AR5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS5" t="n">
         <v>13</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AU5" t="n">
         <v>13</v>
@@ -1350,7 +1417,7 @@
         <v>13</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY5" t="n">
         <v>26</v>
@@ -1365,7 +1432,7 @@
         <v>12</v>
       </c>
       <c r="BC5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -1394,100 +1461,100 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" t="n">
         <v>31</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.795</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J6" t="n">
-        <v>78.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L6" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M6" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="O6" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="P6" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R6" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S6" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T6" t="n">
         <v>41.6</v>
       </c>
       <c r="U6" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V6" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="W6" t="n">
         <v>8.1</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>101</v>
+        <v>100.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.6</v>
+        <v>11.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF6" t="n">
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
@@ -1496,34 +1563,34 @@
         <v>3</v>
       </c>
       <c r="AL6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AM6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR6" t="n">
         <v>20</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>17</v>
       </c>
       <c r="AS6" t="n">
         <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AV6" t="n">
         <v>7</v>
@@ -1535,13 +1602,13 @@
         <v>3</v>
       </c>
       <c r="AY6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AZ6" t="n">
         <v>11</v>
       </c>
       <c r="BA6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BB6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -1654,16 +1721,16 @@
         <v>1.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
         <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
         <v>16</v>
@@ -1675,7 +1742,7 @@
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
         <v>12</v>
@@ -1684,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
         <v>26</v>
@@ -1702,16 +1769,16 @@
         <v>3</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>9</v>
       </c>
       <c r="AW7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -1758,58 +1825,58 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
         <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>0.651</v>
+        <v>0.643</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J8" t="n">
-        <v>78.3</v>
+        <v>78.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.472</v>
+        <v>0.47</v>
       </c>
       <c r="L8" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M8" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="N8" t="n">
-        <v>0.376</v>
+        <v>0.379</v>
       </c>
       <c r="O8" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="P8" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="Q8" t="n">
         <v>0.757</v>
       </c>
       <c r="R8" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S8" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T8" t="n">
         <v>41</v>
       </c>
       <c r="U8" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V8" t="n">
         <v>15.6</v>
@@ -1824,19 +1891,19 @@
         <v>5.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.3</v>
+        <v>104</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1848,7 +1915,7 @@
         <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
         <v>10</v>
@@ -1860,13 +1927,13 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="n">
         <v>15</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1899,7 +1966,7 @@
         <v>6</v>
       </c>
       <c r="AY8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>24</v>
@@ -1908,10 +1975,10 @@
         <v>3</v>
       </c>
       <c r="BB8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>0.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2036,7 +2103,7 @@
         <v>24</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK9" t="n">
         <v>16</v>
@@ -2060,7 +2127,7 @@
         <v>29</v>
       </c>
       <c r="AR9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS9" t="n">
         <v>14</v>
@@ -2075,10 +2142,10 @@
         <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
         <v>5</v>
@@ -2093,7 +2160,7 @@
         <v>27</v>
       </c>
       <c r="BC9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2285,7 @@
         <v>3</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK10" t="n">
         <v>17</v>
@@ -2263,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="AY10" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AZ10" t="n">
         <v>19</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -2388,10 +2455,10 @@
         <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
         <v>17</v>
@@ -2400,7 +2467,7 @@
         <v>27</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
         <v>23</v>
@@ -2415,7 +2482,7 @@
         <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2424,7 +2491,7 @@
         <v>5</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS11" t="n">
         <v>4</v>
@@ -2433,10 +2500,10 @@
         <v>8</v>
       </c>
       <c r="AU11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW11" t="n">
         <v>21</v>
@@ -2451,7 +2518,7 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB11" t="n">
         <v>20</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -2486,85 +2553,85 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
       </c>
       <c r="F12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" t="n">
-        <v>0.357</v>
+        <v>0.366</v>
       </c>
       <c r="H12" t="n">
         <v>48.7</v>
       </c>
       <c r="I12" t="n">
-        <v>39</v>
+        <v>39.3</v>
       </c>
       <c r="J12" t="n">
-        <v>86.40000000000001</v>
+        <v>86.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.452</v>
+        <v>0.454</v>
       </c>
       <c r="L12" t="n">
         <v>7.4</v>
       </c>
       <c r="M12" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O12" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P12" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.806</v>
+        <v>0.805</v>
       </c>
       <c r="R12" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S12" t="n">
         <v>32.5</v>
       </c>
       <c r="T12" t="n">
-        <v>43.7</v>
+        <v>43.9</v>
       </c>
       <c r="U12" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="V12" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W12" t="n">
         <v>7</v>
       </c>
       <c r="X12" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y12" t="n">
         <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.2</v>
+        <v>104.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.5</v>
+        <v>-2.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
@@ -2576,16 +2643,16 @@
         <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI12" t="n">
         <v>2</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL12" t="n">
         <v>8</v>
@@ -2594,19 +2661,19 @@
         <v>8</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ12" t="n">
         <v>4</v>
       </c>
       <c r="AR12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS12" t="n">
         <v>2</v>
@@ -2624,22 +2691,22 @@
         <v>17</v>
       </c>
       <c r="AX12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-7.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2773,7 +2840,7 @@
         <v>24</v>
       </c>
       <c r="AM13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AN13" t="n">
         <v>30</v>
@@ -2782,7 +2849,7 @@
         <v>25</v>
       </c>
       <c r="AP13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
         <v>25</v>
@@ -2794,7 +2861,7 @@
         <v>18</v>
       </c>
       <c r="AT13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU13" t="n">
         <v>27</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" t="n">
         <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.795</v>
+        <v>0.8</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
@@ -2868,7 +2935,7 @@
         <v>39.8</v>
       </c>
       <c r="J14" t="n">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="K14" t="n">
         <v>0.475</v>
@@ -2877,34 +2944,34 @@
         <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.379</v>
+        <v>0.384</v>
       </c>
       <c r="O14" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="P14" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R14" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T14" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U14" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V14" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W14" t="n">
         <v>8.699999999999999</v>
@@ -2916,28 +2983,28 @@
         <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.9</v>
+        <v>107.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
       </c>
       <c r="AF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="n">
         <v>2</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>3</v>
       </c>
       <c r="AH14" t="n">
         <v>29</v>
@@ -2967,16 +3034,16 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR14" t="n">
         <v>7</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
@@ -2988,13 +3055,13 @@
         <v>3</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
         <v>10</v>
       </c>
       <c r="AZ14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
         <v>28</v>
@@ -3149,7 +3216,7 @@
         <v>9</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
         <v>25</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3322,25 +3389,25 @@
         <v>12</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
         <v>27</v>
       </c>
       <c r="AP16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>28</v>
       </c>
       <c r="AR16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS16" t="n">
         <v>23</v>
       </c>
       <c r="AT16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU16" t="n">
         <v>24</v>
@@ -3352,10 +3419,10 @@
         <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ16" t="n">
         <v>16</v>
@@ -3367,7 +3434,7 @@
         <v>22</v>
       </c>
       <c r="BC16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" t="n">
         <v>20</v>
       </c>
       <c r="F17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G17" t="n">
-        <v>0.465</v>
+        <v>0.455</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,7 +3481,7 @@
         <v>36.4</v>
       </c>
       <c r="J17" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K17" t="n">
         <v>0.446</v>
@@ -3423,37 +3490,37 @@
         <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O17" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="P17" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.782</v>
+        <v>0.781</v>
       </c>
       <c r="R17" t="n">
         <v>12.4</v>
       </c>
       <c r="S17" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="T17" t="n">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="U17" t="n">
         <v>21</v>
       </c>
       <c r="V17" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W17" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X17" t="n">
         <v>3.6</v>
@@ -3462,16 +3529,16 @@
         <v>4.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3483,10 +3550,10 @@
         <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
         <v>15</v>
@@ -3495,7 +3562,7 @@
         <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
         <v>22</v>
@@ -3507,10 +3574,10 @@
         <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
         <v>9</v>
@@ -3519,10 +3586,10 @@
         <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AT17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU17" t="n">
         <v>12</v>
@@ -3531,13 +3598,13 @@
         <v>17</v>
       </c>
       <c r="AW17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX17" t="n">
         <v>28</v>
       </c>
       <c r="AY17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3549,7 +3616,7 @@
         <v>18</v>
       </c>
       <c r="BC17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -3578,46 +3645,46 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G18" t="n">
-        <v>0.325</v>
+        <v>0.333</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
       </c>
       <c r="I18" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J18" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.439</v>
+        <v>0.437</v>
       </c>
       <c r="L18" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M18" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O18" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="P18" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R18" t="n">
         <v>12.6</v>
@@ -3632,7 +3699,7 @@
         <v>20.2</v>
       </c>
       <c r="V18" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W18" t="n">
         <v>6.5</v>
@@ -3641,22 +3708,22 @@
         <v>4.2</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>98</v>
+        <v>97.8</v>
       </c>
       <c r="AC18" t="n">
         <v>-3.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
         <v>24</v>
@@ -3686,13 +3753,13 @@
         <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AP18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ18" t="n">
         <v>18</v>
@@ -3704,13 +3771,13 @@
         <v>19</v>
       </c>
       <c r="AT18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU18" t="n">
         <v>18</v>
       </c>
       <c r="AV18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-3</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
@@ -3847,10 +3914,10 @@
         <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI19" t="n">
         <v>25</v>
@@ -3865,7 +3932,7 @@
         <v>5</v>
       </c>
       <c r="AM19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN19" t="n">
         <v>9</v>
@@ -3880,10 +3947,10 @@
         <v>10</v>
       </c>
       <c r="AR19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT19" t="n">
         <v>20</v>
@@ -3907,7 +3974,7 @@
         <v>27</v>
       </c>
       <c r="BA19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB19" t="n">
         <v>13</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>3.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE20" t="n">
         <v>8</v>
@@ -4041,7 +4108,7 @@
         <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4056,7 +4123,7 @@
         <v>20</v>
       </c>
       <c r="AP20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
@@ -4080,13 +4147,13 @@
         <v>11</v>
       </c>
       <c r="AX20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY20" t="n">
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA20" t="n">
         <v>15</v>
@@ -4095,7 +4162,7 @@
         <v>24</v>
       </c>
       <c r="BC20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>-3.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
         <v>20</v>
@@ -4250,7 +4317,7 @@
         <v>9</v>
       </c>
       <c r="AT21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
@@ -4277,7 +4344,7 @@
         <v>6</v>
       </c>
       <c r="BC21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -4405,7 +4472,7 @@
         <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
@@ -4414,13 +4481,13 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
         <v>16</v>
       </c>
       <c r="AP22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ22" t="n">
         <v>16</v>
@@ -4450,7 +4517,7 @@
         <v>22</v>
       </c>
       <c r="AZ22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA22" t="n">
         <v>23</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -4566,25 +4633,25 @@
         <v>8.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF23" t="n">
         <v>1</v>
       </c>
-      <c r="AF23" t="n">
-        <v>2</v>
-      </c>
       <c r="AG23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI23" t="n">
         <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
         <v>8</v>
@@ -4614,13 +4681,13 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU23" t="n">
         <v>28</v>
       </c>
       <c r="AV23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW23" t="n">
         <v>12</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>0.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>16</v>
@@ -4760,16 +4827,16 @@
         <v>16</v>
       </c>
       <c r="AH24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ24" t="n">
         <v>14</v>
       </c>
       <c r="AK24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4778,13 +4845,13 @@
         <v>29</v>
       </c>
       <c r="AN24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ24" t="n">
         <v>27</v>
@@ -4796,7 +4863,7 @@
         <v>16</v>
       </c>
       <c r="AT24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU24" t="n">
         <v>14</v>
@@ -4811,10 +4878,10 @@
         <v>9</v>
       </c>
       <c r="AY24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA24" t="n">
         <v>19</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -4936,10 +5003,10 @@
         <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
         <v>20</v>
@@ -4954,10 +5021,10 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN25" t="n">
         <v>4</v>
@@ -4990,7 +5057,7 @@
         <v>29</v>
       </c>
       <c r="AX25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY25" t="n">
         <v>6</v>
@@ -5002,7 +5069,7 @@
         <v>7</v>
       </c>
       <c r="BB25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -5034,109 +5101,109 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E26" t="n">
         <v>25</v>
       </c>
       <c r="F26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G26" t="n">
-        <v>0.625</v>
+        <v>0.61</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="J26" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.459</v>
+        <v>0.456</v>
       </c>
       <c r="L26" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M26" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O26" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.767</v>
+        <v>0.765</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="T26" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U26" t="n">
         <v>20.4</v>
       </c>
       <c r="V26" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W26" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X26" t="n">
         <v>5</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>21</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>22</v>
-      </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AM26" t="n">
         <v>10</v>
@@ -5145,13 +5212,13 @@
         <v>6</v>
       </c>
       <c r="AO26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>14</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>13</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5172,22 +5239,22 @@
         <v>24</v>
       </c>
       <c r="AX26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" t="n">
-        <v>0.238</v>
+        <v>0.244</v>
       </c>
       <c r="H27" t="n">
         <v>48.7</v>
@@ -5237,16 +5304,16 @@
         <v>81.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L27" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M27" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.339</v>
+        <v>0.334</v>
       </c>
       <c r="O27" t="n">
         <v>20.1</v>
@@ -5255,22 +5322,22 @@
         <v>25.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.801</v>
+        <v>0.8</v>
       </c>
       <c r="R27" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S27" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T27" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="U27" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V27" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W27" t="n">
         <v>6.7</v>
@@ -5279,34 +5346,34 @@
         <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB27" t="n">
         <v>98.59999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-9</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG27" t="n">
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI27" t="n">
         <v>20</v>
@@ -5321,28 +5388,28 @@
         <v>20</v>
       </c>
       <c r="AM27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO27" t="n">
         <v>8</v>
       </c>
       <c r="AP27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ27" t="n">
         <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU27" t="n">
         <v>21</v>
@@ -5366,7 +5433,7 @@
         <v>9</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -5398,73 +5465,73 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" t="n">
         <v>13</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.675</v>
       </c>
       <c r="H28" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I28" t="n">
         <v>36.8</v>
       </c>
       <c r="J28" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="N28" t="n">
         <v>0.397</v>
       </c>
       <c r="O28" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="P28" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="Q28" t="n">
         <v>0.756</v>
       </c>
       <c r="R28" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="S28" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="T28" t="n">
-        <v>40.2</v>
+        <v>39.8</v>
       </c>
       <c r="U28" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V28" t="n">
         <v>12</v>
       </c>
       <c r="W28" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="X28" t="n">
         <v>4.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AA28" t="n">
         <v>18.6</v>
@@ -5473,10 +5540,10 @@
         <v>96.90000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5488,13 +5555,13 @@
         <v>5</v>
       </c>
       <c r="AH28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
         <v>7</v>
@@ -5503,7 +5570,7 @@
         <v>3</v>
       </c>
       <c r="AM28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN28" t="n">
         <v>2</v>
@@ -5515,16 +5582,16 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5536,7 +5603,7 @@
         <v>30</v>
       </c>
       <c r="AX28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY28" t="n">
         <v>7</v>
@@ -5551,7 +5618,7 @@
         <v>21</v>
       </c>
       <c r="BC28" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>-2.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
       </c>
       <c r="AF29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG29" t="n">
         <v>22</v>
@@ -5673,13 +5740,13 @@
         <v>18</v>
       </c>
       <c r="AI29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ29" t="n">
         <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL29" t="n">
         <v>18</v>
@@ -5694,7 +5761,7 @@
         <v>11</v>
       </c>
       <c r="AP29" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5718,7 +5785,7 @@
         <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY29" t="n">
         <v>12</v>
@@ -5727,13 +5794,13 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB29" t="n">
         <v>19</v>
       </c>
       <c r="BC29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F30" t="n">
         <v>17</v>
       </c>
       <c r="G30" t="n">
-        <v>0.595</v>
+        <v>0.585</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
@@ -5780,7 +5847,7 @@
         <v>38</v>
       </c>
       <c r="J30" t="n">
-        <v>79.90000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="K30" t="n">
         <v>0.476</v>
@@ -5795,13 +5862,13 @@
         <v>0.343</v>
       </c>
       <c r="O30" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="P30" t="n">
         <v>27.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.777</v>
+        <v>0.773</v>
       </c>
       <c r="R30" t="n">
         <v>11.8</v>
@@ -5813,13 +5880,13 @@
         <v>41.3</v>
       </c>
       <c r="U30" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="V30" t="n">
         <v>15.3</v>
       </c>
       <c r="W30" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X30" t="n">
         <v>4.9</v>
@@ -5828,31 +5895,31 @@
         <v>4.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>102</v>
+        <v>101.8</v>
       </c>
       <c r="AC30" t="n">
         <v>3.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF30" t="n">
         <v>12</v>
       </c>
       <c r="AG30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH30" t="n">
         <v>11</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>12</v>
       </c>
       <c r="AI30" t="n">
         <v>5</v>
@@ -5870,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5882,7 +5949,7 @@
         <v>11</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
         <v>22</v>
@@ -5894,13 +5961,13 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW30" t="n">
         <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY30" t="n">
         <v>14</v>
@@ -5915,7 +5982,7 @@
         <v>8</v>
       </c>
       <c r="BC30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-6.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6064,7 +6131,7 @@
         <v>23</v>
       </c>
       <c r="AR31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS31" t="n">
         <v>30</v>
@@ -6073,7 +6140,7 @@
         <v>26</v>
       </c>
       <c r="AU31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV31" t="n">
         <v>8</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-20-2008-09</t>
+          <t>2009-01-20</t>
         </is>
       </c>
     </row>
